--- a/Doku/Prozessschritte.xlsx
+++ b/Doku/Prozessschritte.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBFE61-14DB-4F4E-8F28-8ACFC8C4AECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IljasgadzhiM\Desktop\ProjektArbeit\MerchantManagement\Doku\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{F82ACD11-028F-4C2F-A27A-E94A9B1271B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,97 +35,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+  <si>
+    <t>Zeitaufwand</t>
+  </si>
   <si>
     <t>Tätigkeit</t>
   </si>
   <si>
-    <t>Arbeitsschritt</t>
-  </si>
-  <si>
     <t>Aufwand in Stunden</t>
   </si>
   <si>
-    <t>Analyse der Anforderungen</t>
-  </si>
-  <si>
-    <t>1. Vorbereitung</t>
-  </si>
-  <si>
-    <t>Erstellen des 
-Pflichtenhefts und des 
-Projektplans</t>
-  </si>
-  <si>
-    <t>2. Implementierung</t>
+    <t>Ist-/Soll-Analyse</t>
+  </si>
+  <si>
+    <t>Analyse der Anforderunge, Projektplan 
+und Pflichtenheft</t>
   </si>
   <si>
     <t>Backend</t>
   </si>
   <si>
-    <t>Die Erstellung von
-Azure Funktionen CRUD Operationen</t>
-  </si>
-  <si>
-    <t>Unit Tests</t>
-  </si>
-  <si>
-    <t>Auswahl von Frameworks</t>
-  </si>
-  <si>
     <t>Frontend</t>
   </si>
   <si>
-    <t>Erstellen aller benötigten Ansichten</t>
-  </si>
-  <si>
-    <t>Layout anpassen (Bootstrap)</t>
-  </si>
-  <si>
-    <t>Erstellen von Services</t>
-  </si>
-  <si>
-    <t>3. Qualitätssicherung</t>
-  </si>
-  <si>
-    <t>Tests von CRUD Operationen</t>
-  </si>
-  <si>
-    <t>Managementportal nach Fehlern geprüft</t>
-  </si>
-  <si>
-    <t>4. Dokumentation</t>
-  </si>
-  <si>
-    <t>Layouts anpassen</t>
-  </si>
-  <si>
-    <t>Erstellung des Benutzerhandbuchs</t>
-  </si>
-  <si>
-    <t>Finale Abnahme durch Product Owner</t>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Besprechung und Abnahme</t>
+  </si>
+  <si>
+    <t>Erstellung der Dokumentation</t>
+  </si>
+  <si>
+    <t>Arbeitsmittel</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Arbeitsplatz</t>
+  </si>
+  <si>
+    <t>Internetanschluss</t>
+  </si>
+  <si>
+    <t>Visual Studio Community</t>
+  </si>
+  <si>
+    <t>Visual Studio Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Kosten/h</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Iljasgadzhi Makhsunov</t>
+  </si>
+  <si>
+    <t>Entwickler</t>
+  </si>
+  <si>
+    <t>Wendelin Niesl</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
   </si>
   <si>
     <t>Summe</t>
-  </si>
-  <si>
-    <t>Erstellen und Verfassen der Dokumentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -140,33 +151,232 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -177,6 +387,528 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -195,22 +927,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED7CB474-02ED-47B7-96FE-9C7ACFF255B7}" name="Tabelle1" displayName="Tabelle1" ref="A1:C41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:C41" xr:uid="{867DD06A-786E-4D6D-82BB-7E93D0D27654}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
-    <sortCondition ref="A1:A41"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1A109AE1-94DB-4545-B718-97FBBC6EC192}" name="Tätigkeit" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{909F30AE-C78D-4343-A6E4-83363EAEC246}" name="Arbeitsschritt" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{64E35B0E-1971-4D4F-A7DF-7471B2498014}" name="Aufwand in Stunden" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:B9" totalsRowCount="1" headerRowDxfId="30" dataDxfId="28" totalsRowDxfId="29" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+  <autoFilter ref="A1:B8" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tätigkeit" totalsRowLabel="Summe" dataDxfId="27" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Aufwand in Stunden" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A12:B18" totalsRowCount="1" headerRowDxfId="18" dataDxfId="34" totalsRowDxfId="17" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+  <autoFilter ref="A12:B17" xr:uid="{00000000-0009-0000-0100-000003000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Arbeitsmittel" totalsRowLabel="Summe" dataDxfId="20" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Anzahl" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle6" displayName="Tabelle6" ref="A28:E31" totalsRowCount="1" headerRowDxfId="6" dataDxfId="14" totalsRowDxfId="5" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="4">
+  <autoFilter ref="A28:E30" xr:uid="{00000000-0009-0000-0100-000006000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Summe" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Position" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Kosten/h" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Zeitaufwand" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Kosten" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -226,7 +991,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -238,7 +1003,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -255,7 +1020,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -285,12 +1050,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -320,6 +1102,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,178 +1271,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10">
+        <f>SUBTOTAL(109,Tabelle2[Aufwand in Stunden])</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="17">
+        <f>SUBTOTAL(109,Tabelle3[Anzahl])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E28" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="D29" s="21">
+        <v>70</v>
+      </c>
+      <c r="E29" s="22">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="26">
+        <v>95</v>
+      </c>
+      <c r="D30" s="23">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
-        <f>SUM(C2:C17)</f>
-        <v>70</v>
-      </c>
+      <c r="E30" s="24">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31">
+        <f>SUBTOTAL(109,Tabelle6[Kosten])</f>
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>